--- a/data/tables/TsakonianDB - Open collab.xlsx
+++ b/data/tables/TsakonianDB - Open collab.xlsx
@@ -7290,7 +7290,7 @@
     <t>Κωστάκης, Θανάσης (1986). Λεξικό της τσακώνικης διάλεκτου</t>
   </si>
   <si>
-    <t>Μαθήματα με τον Μακσίμ Κισιλιέρ</t>
+    <t>Μαθήματα με τον Μαξίμ Κισιλιέρ</t>
   </si>
   <si>
     <t>σζ</t>
@@ -7348,7 +7348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -7371,23 +7371,12 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7400,14 +7389,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FFDDEBF7"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border/>
     <border>
       <left style="thin">
@@ -7587,49 +7570,21 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF9BC2E6"/>
+        <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFDDEBF7"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FF9BC2E6"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF9BC2E6"/>
+        <color rgb="FF284E3F"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFDDEBF7"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDDEBF7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9BC2E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9BC2E6"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9BC2E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9BC2E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9BC2E6"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FFF8F9FA"/>
@@ -7655,25 +7610,11 @@
         <color rgb="FF284E3F"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7767,43 +7708,31 @@
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -66432,629 +66361,629 @@
       <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="4" t="s">
         <v>2310</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="4" t="s">
         <v>2311</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="4" t="s">
         <v>2312</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>2313</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>2314</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="15" t="s">
         <v>2315</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="15" t="s">
         <v>2316</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="15" t="s">
         <v>2317</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="7" t="s">
         <v>2318</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="10" t="s">
         <v>867</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="14" t="s">
         <v>2319</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="14" t="s">
         <v>2316</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="14" t="s">
         <v>2317</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="11" t="s">
         <v>2318</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="15" t="s">
         <v>2320</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="15" t="s">
         <v>2321</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="15" t="s">
         <v>2231</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="7" t="s">
         <v>2318</v>
       </c>
-      <c r="F4" s="38"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="10" t="s">
         <v>867</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="14" t="s">
         <v>2322</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="14" t="s">
         <v>2323</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="14" t="s">
         <v>2324</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="11" t="s">
         <v>2318</v>
       </c>
-      <c r="F5" s="38"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="6" t="s">
         <v>2325</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="15" t="s">
         <v>2326</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="15" t="s">
         <v>2327</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="15" t="s">
         <v>2328</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="7" t="s">
         <v>2329</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="14" t="s">
         <v>2330</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="14" t="s">
         <v>2327</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="14" t="s">
         <v>2328</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="11" t="s">
         <v>2329</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="15" t="s">
         <v>2331</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="15" t="s">
         <v>2332</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="15" t="s">
         <v>2333</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="14" t="s">
         <v>2334</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="14" t="s">
         <v>2332</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="14" t="s">
         <v>2333</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="11" t="s">
         <v>2335</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="15" t="s">
         <v>2336</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="15" t="s">
         <v>2332</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="15" t="s">
         <v>2333</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="14" t="s">
         <v>2337</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="14" t="s">
         <v>2226</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="14" t="s">
         <v>2338</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="11" t="s">
         <v>2339</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="15" t="s">
         <v>2340</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="15" t="s">
         <v>2332</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="15" t="s">
         <v>2341</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="7" t="s">
         <v>2342</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="14" t="s">
         <v>2343</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="14" t="s">
         <v>2344</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="14" t="s">
         <v>2341</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="11" t="s">
         <v>2345</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="15" t="s">
         <v>2346</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="15" t="s">
         <v>2226</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="15" t="s">
         <v>2341</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="7" t="s">
         <v>2347</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="10" t="s">
         <v>1347</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="14" t="s">
         <v>2348</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="14" t="s">
         <v>2349</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="14" t="s">
         <v>2350</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="11" t="s">
         <v>2351</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="6" t="s">
         <v>933</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="15" t="s">
         <v>2352</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="15" t="s">
         <v>2353</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="7" t="s">
         <v>2354</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="10" t="s">
         <v>2355</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="14" t="s">
         <v>2356</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="14" t="s">
         <v>2332</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="14" t="s">
         <v>2333</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="6" t="s">
         <v>2357</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="15" t="s">
         <v>2358</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="15" t="s">
         <v>2359</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="10" t="s">
         <v>2360</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="14" t="s">
         <v>2361</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="14" t="s">
         <v>2321</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="14" t="s">
         <v>2208</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="11" t="s">
         <v>2362</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="26" t="s">
         <v>2363</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="6" t="s">
         <v>2364</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="15" t="s">
         <v>2361</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="15" t="s">
         <v>2316</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="15" t="s">
         <v>2208</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="7" t="s">
         <v>2318</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="25" t="s">
         <v>2363</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="10" t="s">
         <v>2365</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="14" t="s">
         <v>2366</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="14" t="s">
         <v>2316</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="14" t="s">
         <v>2208</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="15" t="s">
         <v>2367</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="15" t="s">
         <v>2368</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="15" t="s">
         <v>2317</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="14" t="s">
         <v>2369</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="14" t="s">
         <v>2370</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="6" t="s">
         <v>2371</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="15" t="s">
         <v>2372</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="15" t="s">
         <v>2338</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="7" t="s">
         <v>2339</v>
       </c>
-      <c r="F24" s="38"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="14" t="s">
         <v>2373</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="14" t="s">
         <v>2316</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="14" t="s">
         <v>2317</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="11" t="s">
         <v>2318</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="26" t="s">
         <v>2374</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="15" t="s">
         <v>2373</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="15" t="s">
         <v>2323</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="15" t="s">
         <v>2324</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="7" t="s">
         <v>2375</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="25" t="s">
         <v>2374</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="10" t="s">
         <v>908</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="14" t="s">
         <v>2373</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="14" t="s">
         <v>2376</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="14" t="s">
         <v>2377</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="26" t="s">
         <v>2374</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="15" t="s">
         <v>2378</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="15" t="s">
         <v>2379</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="7" t="s">
         <v>2380</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="25" t="s">
         <v>2381</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="14" t="s">
         <v>2378</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="14" t="s">
         <v>2382</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="14" t="s">
         <v>2383</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="11" t="s">
         <v>2384</v>
       </c>
-      <c r="F29" s="38"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="15" t="s">
         <v>2378</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="15" t="s">
         <v>2385</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="15" t="s">
         <v>2386</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="7" t="s">
         <v>2387</v>
       </c>
-      <c r="F30" s="38"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="10" t="s">
         <v>1368</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="14" t="s">
         <v>2378</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="14" t="s">
         <v>2388</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="14" t="s">
         <v>2389</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="11" t="s">
         <v>2390</v>
       </c>
-      <c r="F31" s="38"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="6" t="s">
         <v>1767</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="15" t="s">
         <v>2378</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="15" t="s">
         <v>2391</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="15" t="s">
         <v>2392</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="7" t="s">
         <v>2393</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="25" t="s">
         <v>2394</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="10" t="s">
         <v>1827</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="14" t="s">
         <v>2378</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="14" t="s">
         <v>2395</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="14" t="s">
         <v>2396</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="11" t="s">
         <v>2390</v>
       </c>
-      <c r="F33" s="38"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="15" t="s">
         <v>2378</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="15" t="s">
         <v>2397</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="15" t="s">
         <v>2398</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="7" t="s">
         <v>2399</v>
       </c>
-      <c r="F34" s="38"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="34" t="s">
         <v>1156</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="35" t="s">
         <v>2378</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="35" t="s">
         <v>2400</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="35" t="s">
         <v>2401</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="36" t="s">
         <v>2402</v>
       </c>
-      <c r="F35" s="38"/>
+      <c r="F35" s="37"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -67158,10 +67087,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="34" t="s">
         <v>1134</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="37" t="s">
         <v>2415</v>
       </c>
     </row>
@@ -67226,7 +67155,7 @@
       <c r="B4" s="7" t="s">
         <v>2420</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="38" t="s">
         <v>2421</v>
       </c>
     </row>
@@ -67249,13 +67178,13 @@
       <c r="C6" s="27"/>
     </row>
     <row r="7">
-      <c r="A7" s="39">
+      <c r="A7" s="34">
         <v>6.0</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="36" t="s">
         <v>2424</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -67285,98 +67214,98 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="42" t="s">
         <v>2425</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>2426</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="44" t="s">
         <v>2427</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="45" t="s">
         <v>2428</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="42" t="s">
         <v>2429</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="43" t="s">
         <v>2430</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="44" t="s">
         <v>2429</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="45" t="s">
         <v>2429</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="42" t="s">
         <v>2431</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="43" t="s">
         <v>2432</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="44" t="s">
         <v>2433</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="45" t="s">
         <v>2431</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="42" t="s">
         <v>2434</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="43" t="s">
         <v>2433</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="44" t="s">
         <v>2435</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="45" t="s">
         <v>2436</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="42" t="s">
         <v>2436</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="43" t="s">
         <v>2437</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="44" t="s">
         <v>2438</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="45" t="s">
         <v>2439</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="46" t="s">
         <v>2440</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="47" t="s">
         <v>2441</v>
       </c>
     </row>
